--- a/DataExtraida.xlsx
+++ b/DataExtraida.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TODO\Descargas\UiPath\extraccion_pagina_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A79ABA-D41E-4CDB-8B06-0AC0CC64D9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E267ED-CCDF-44A1-AD79-96EDE528D327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{AE0E5BE7-919D-4387-A05C-C7596F85E6B7}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{D51E718F-FBAB-402C-BCFB-347FCBD02301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -818,7 +818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0205F614-28CF-41BD-9423-0B817C9598A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FB8970-DD32-46F6-BDDD-A1218ABB59B5}">
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2616,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD26991-B7CA-4F7A-AE0F-4DE69EC26931}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C275F73C-DEA1-4EFC-A4E3-A68E81A8EB59}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
